--- a/LearnPageObjectModel/inputData/excel/CreateLead.xlsx
+++ b/LearnPageObjectModel/inputData/excel/CreateLead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TestLeaf1\LearnPageObjectModel\inputData\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB555BF-8E28-4205-875B-ED5EEA3956B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB6B0C9-63F2-48FA-A710-62F9A94E38DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29520" yWindow="0" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>uName</t>
-  </si>
-  <si>
-    <t>pWord</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>fName</t>
   </si>
@@ -42,12 +36,6 @@
     <t>cName</t>
   </si>
   <si>
-    <t>Demosalesmanager</t>
-  </si>
-  <si>
-    <t>crmsfa</t>
-  </si>
-  <si>
     <t>RaghavHari</t>
   </si>
   <si>
@@ -55,12 +43,6 @@
   </si>
   <si>
     <t>appasamy</t>
-  </si>
-  <si>
-    <t>latcham1</t>
-  </si>
-  <si>
-    <t>appasam1y</t>
   </si>
 </sst>
 </file>
@@ -378,68 +360,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/LearnPageObjectModel/inputData/excel/CreateLead.xlsx
+++ b/LearnPageObjectModel/inputData/excel/CreateLead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TestLeaf1\LearnPageObjectModel\inputData\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB6B0C9-63F2-48FA-A710-62F9A94E38DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45127E-293F-449F-98EC-3CAE1AB51F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="0" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31590" yWindow="480" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>fName</t>
   </si>
@@ -43,16 +43,25 @@
   </si>
   <si>
     <t>appasamy</t>
+  </si>
+  <si>
+    <t>latcham1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,7 +403,27 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>